--- a/tp2/Simulateur.xlsx
+++ b/tp2/Simulateur.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillaume\Documents\ESISAR\5A\CS515 - Conception objet avancee\CS515\tp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\IT-work\CS515\tp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>g</t>
   </si>
@@ -48,14 +48,35 @@
   </si>
   <si>
     <t>Constante</t>
+  </si>
+  <si>
+    <t>staticP</t>
+  </si>
+  <si>
+    <t>totalP</t>
+  </si>
+  <si>
+    <t>&lt;100 m/s</t>
+  </si>
+  <si>
+    <t>&gt;100 m/s</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>Vs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -103,10 +124,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,38 +441,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="3" max="3" width="3" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1">
-        <v>42.42</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
         <v>80.400000000000006</v>
       </c>
       <c r="G1" s="1">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,20 +482,20 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f>$B$4*$B$5*LN($B$3/E1)/($B$6*$B$2)</f>
-        <v>3415.506634404027</v>
-      </c>
-      <c r="F2" s="5">
+        <v>5061.098335508892</v>
+      </c>
+      <c r="F2" s="4">
         <f t="shared" ref="F2:G2" si="0">$B$4*$B$5*LN($B$3/F1)/($B$6*$B$2)</f>
         <v>3134.746619235571</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>3259.6147363907362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3141.3497984611013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -482,7 +503,7 @@
         <v>101315</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -490,15 +511,19 @@
         <v>8.3140000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="4">
+        <f>AVERAGE(F2:G2)</f>
+        <v>3138.0482088483359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -506,8 +531,68 @@
         <v>2.896E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <f>7/5</f>
+        <v>1.4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>42.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>335</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <f>(((2/($B$9-1))*(((E10/E9)^(($B$9-1)/$B$9))-1))^0.5)*$B$11</f>
+        <v>1425.4814332922654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4">
+        <f>(2*(E10-E9)/$B$10)^0.5</f>
+        <v>117.70938297309689</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/tp2/Simulateur.xlsx
+++ b/tp2/Simulateur.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>g</t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>Vs</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Dassault</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>P-1 filtré</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>a1</t>
   </si>
 </sst>
 </file>
@@ -442,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1">
-        <v>80.400000000000006</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1">
         <v>79.2</v>
@@ -488,7 +509,7 @@
       </c>
       <c r="F2" s="4">
         <f t="shared" ref="F2:G2" si="0">$B$4*$B$5*LN($B$3/F1)/($B$6*$B$2)</f>
-        <v>3134.746619235571</v>
+        <v>3021.7316910670179</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -520,7 +541,7 @@
       </c>
       <c r="I5" s="4">
         <f>AVERAGE(F2:G2)</f>
-        <v>3138.0482088483359</v>
+        <v>3081.5407447640596</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -543,7 +564,8 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>42.42</v>
+        <f>F20</f>
+        <v>104.98950000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -557,7 +579,8 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>9000</v>
+        <f>E20</f>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -577,7 +600,7 @@
       </c>
       <c r="E12" s="4">
         <f>(((2/($B$9-1))*(((E10/E9)^(($B$9-1)/$B$9))-1))^0.5)*$B$11</f>
-        <v>1425.4814332922654</v>
+        <v>177.08288132370578</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -591,7 +614,90 @@
       </c>
       <c r="E14" s="4">
         <f>(2*(E10-E9)/$B$10)^0.5</f>
-        <v>117.70938297309689</v>
+        <v>5.8348633503358096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>115</v>
+      </c>
+      <c r="F17">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>120</v>
+      </c>
+      <c r="F19">
+        <v>98.95</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <f>E17+E16*E19</f>
+        <v>127</v>
+      </c>
+      <c r="F20">
+        <f>F17+F16*F19</f>
+        <v>104.98950000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f>(E17+E18)/2</f>
+        <v>107.5</v>
+      </c>
+      <c r="F21">
+        <f>(F17+F18)/2</f>
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <f>E17</f>
+        <v>115</v>
+      </c>
+      <c r="F22">
+        <f>F17</f>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
